--- a/data/DnDData.xlsx
+++ b/data/DnDData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\devel\dev-site\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{129F3BB1-0010-4213-B621-D54807B41C1E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA6BE29-BCBE-43C9-BE33-642BA5EBC8DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17190" windowHeight="21000" xr2:uid="{74E712EF-7D7F-4E51-A878-1DFA79FC109F}"/>
   </bookViews>
@@ -1202,8 +1202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD036CBD-6181-4922-B575-2AB5E5D0D05B}">
   <dimension ref="A1:G83"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C13" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" topLeftCell="C46" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
